--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.12602466666667</v>
+        <v>12.46387466666667</v>
       </c>
       <c r="H2">
-        <v>33.378074</v>
+        <v>37.391624</v>
       </c>
       <c r="I2">
-        <v>0.7147750296730129</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="J2">
-        <v>0.714775029673013</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N2">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O2">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P2">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q2">
-        <v>469.9552897256144</v>
+        <v>501.7233202254328</v>
       </c>
       <c r="R2">
-        <v>4229.59760753053</v>
+        <v>4515.509882028895</v>
       </c>
       <c r="S2">
-        <v>0.521619615411467</v>
+        <v>0.3085785157248375</v>
       </c>
       <c r="T2">
-        <v>0.5216196154114672</v>
+        <v>0.3085785157248374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.12602466666667</v>
+        <v>12.46387466666667</v>
       </c>
       <c r="H3">
-        <v>33.378074</v>
+        <v>37.391624</v>
       </c>
       <c r="I3">
-        <v>0.7147750296730129</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="J3">
-        <v>0.714775029673013</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.874952</v>
       </c>
       <c r="O3">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P3">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q3">
-        <v>51.45768606693867</v>
+        <v>57.64522091133868</v>
       </c>
       <c r="R3">
-        <v>463.119174602448</v>
+        <v>518.806988202048</v>
       </c>
       <c r="S3">
-        <v>0.0571146638904139</v>
+        <v>0.03545395637471817</v>
       </c>
       <c r="T3">
-        <v>0.05711466389041391</v>
+        <v>0.03545395637471817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.12602466666667</v>
+        <v>12.46387466666667</v>
       </c>
       <c r="H4">
-        <v>33.378074</v>
+        <v>37.391624</v>
       </c>
       <c r="I4">
-        <v>0.7147750296730129</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="J4">
-        <v>0.714775029673013</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N4">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O4">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P4">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q4">
-        <v>98.62429064911221</v>
+        <v>457.2921745969477</v>
       </c>
       <c r="R4">
-        <v>887.6186158420099</v>
+        <v>4115.629571372529</v>
       </c>
       <c r="S4">
-        <v>0.1094665081622013</v>
+        <v>0.2812517074675859</v>
       </c>
       <c r="T4">
-        <v>0.1094665081622014</v>
+        <v>0.2812517074675858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.12602466666667</v>
+        <v>12.46387466666667</v>
       </c>
       <c r="H5">
-        <v>33.378074</v>
+        <v>37.391624</v>
       </c>
       <c r="I5">
-        <v>0.7147750296730129</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="J5">
-        <v>0.714775029673013</v>
+        <v>0.635632186526332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N5">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O5">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P5">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q5">
-        <v>23.94217036237266</v>
+        <v>16.82500934028267</v>
       </c>
       <c r="R5">
-        <v>215.479533261354</v>
+        <v>151.425084062544</v>
       </c>
       <c r="S5">
-        <v>0.02657424220893065</v>
+        <v>0.01034800695919052</v>
       </c>
       <c r="T5">
-        <v>0.02657424220893065</v>
+        <v>0.01034800695919052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8.096599000000001</v>
       </c>
       <c r="I6">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="J6">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N6">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O6">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P6">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q6">
-        <v>113.9981752343506</v>
+        <v>108.6407087537551</v>
       </c>
       <c r="R6">
-        <v>1025.983577109155</v>
+        <v>977.766378783796</v>
       </c>
       <c r="S6">
-        <v>0.1265305139092468</v>
+        <v>0.06681807941369981</v>
       </c>
       <c r="T6">
-        <v>0.1265305139092468</v>
+        <v>0.0668180794136998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8.096599000000001</v>
       </c>
       <c r="I7">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="J7">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.874952</v>
       </c>
       <c r="O7">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P7">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q7">
         <v>12.48221360980533</v>
@@ -883,10 +883,10 @@
         <v>112.339922488248</v>
       </c>
       <c r="S7">
-        <v>0.01385444020947588</v>
+        <v>0.007677025949169441</v>
       </c>
       <c r="T7">
-        <v>0.01385444020947588</v>
+        <v>0.00767702594916944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8.096599000000001</v>
       </c>
       <c r="I8">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="J8">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N8">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O8">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P8">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q8">
-        <v>23.92352935179278</v>
+        <v>99.01980624188649</v>
       </c>
       <c r="R8">
-        <v>215.311764166135</v>
+        <v>891.1782561769783</v>
       </c>
       <c r="S8">
-        <v>0.02655355190714632</v>
+        <v>0.06090086628573151</v>
       </c>
       <c r="T8">
-        <v>0.02655355190714633</v>
+        <v>0.06090086628573149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8.096599000000001</v>
       </c>
       <c r="I9">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="J9">
-        <v>0.1733846833246127</v>
+        <v>0.1376366783586857</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N9">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O9">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P9">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q9">
-        <v>5.807709354764334</v>
+        <v>3.643205061099334</v>
       </c>
       <c r="R9">
-        <v>52.26938419287901</v>
+        <v>32.78884554989401</v>
       </c>
       <c r="S9">
-        <v>0.006446177298743651</v>
+        <v>0.002240706710084992</v>
       </c>
       <c r="T9">
-        <v>0.006446177298743652</v>
+        <v>0.002240706710084992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6644096666666667</v>
+        <v>3.427721</v>
       </c>
       <c r="H10">
-        <v>1.993229</v>
+        <v>10.283163</v>
       </c>
       <c r="I10">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="J10">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N10">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O10">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P10">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q10">
-        <v>28.06418705238944</v>
+        <v>137.9801712484947</v>
       </c>
       <c r="R10">
-        <v>252.577683471505</v>
+        <v>1241.821541236452</v>
       </c>
       <c r="S10">
-        <v>0.03114941096981758</v>
+        <v>0.08486294084195345</v>
       </c>
       <c r="T10">
-        <v>0.03114941096981759</v>
+        <v>0.08486294084195344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6644096666666667</v>
+        <v>3.427721</v>
       </c>
       <c r="H11">
-        <v>1.993229</v>
+        <v>10.283163</v>
       </c>
       <c r="I11">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="J11">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.874952</v>
       </c>
       <c r="O11">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P11">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q11">
-        <v>3.072884077778667</v>
+        <v>15.853154781464</v>
       </c>
       <c r="R11">
-        <v>27.655956700008</v>
+        <v>142.678393033176</v>
       </c>
       <c r="S11">
-        <v>0.003410700221697208</v>
+        <v>0.009750280233779524</v>
       </c>
       <c r="T11">
-        <v>0.003410700221697208</v>
+        <v>0.009750280233779522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6644096666666667</v>
+        <v>3.427721</v>
       </c>
       <c r="H12">
-        <v>1.993229</v>
+        <v>10.283163</v>
       </c>
       <c r="I12">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="J12">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N12">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O12">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P12">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q12">
-        <v>5.889518856787221</v>
+        <v>125.7610519940207</v>
       </c>
       <c r="R12">
-        <v>53.00566971108501</v>
+        <v>1131.849467946186</v>
       </c>
       <c r="S12">
-        <v>0.006536980491973155</v>
+        <v>0.07734772771349815</v>
       </c>
       <c r="T12">
-        <v>0.006536980491973157</v>
+        <v>0.07734772771349814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6644096666666667</v>
+        <v>3.427721</v>
       </c>
       <c r="H13">
-        <v>1.993229</v>
+        <v>10.283163</v>
       </c>
       <c r="I13">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="J13">
-        <v>0.04268401818571407</v>
+        <v>0.1748067797776496</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N13">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O13">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P13">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q13">
-        <v>1.429747812567667</v>
+        <v>4.627087433342001</v>
       </c>
       <c r="R13">
-        <v>12.867730313109</v>
+        <v>41.64378690007801</v>
       </c>
       <c r="S13">
-        <v>0.001586926502226121</v>
+        <v>0.002845830988418435</v>
       </c>
       <c r="T13">
-        <v>0.001586926502226121</v>
+        <v>0.002845830988418434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.076470666666667</v>
+        <v>1.018165333333333</v>
       </c>
       <c r="H14">
-        <v>3.229412</v>
+        <v>3.054496</v>
       </c>
       <c r="I14">
-        <v>0.06915626881666041</v>
+        <v>0.05192435533733264</v>
       </c>
       <c r="J14">
-        <v>0.06915626881666043</v>
+        <v>0.05192435533733263</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N14">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O14">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P14">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q14">
-        <v>45.46934769523777</v>
+        <v>40.98543231862044</v>
       </c>
       <c r="R14">
-        <v>409.22412925714</v>
+        <v>368.868890867584</v>
       </c>
       <c r="S14">
-        <v>0.05046800020412131</v>
+        <v>0.02520756632467885</v>
       </c>
       <c r="T14">
-        <v>0.05046800020412133</v>
+        <v>0.02520756632467884</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.076470666666667</v>
+        <v>1.018165333333333</v>
       </c>
       <c r="H15">
-        <v>3.229412</v>
+        <v>3.054496</v>
       </c>
       <c r="I15">
-        <v>0.06915626881666041</v>
+        <v>0.05192435533733264</v>
       </c>
       <c r="J15">
-        <v>0.06915626881666043</v>
+        <v>0.05192435533733263</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.874952</v>
       </c>
       <c r="O15">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P15">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q15">
-        <v>4.978659609802667</v>
+        <v>4.708998376021334</v>
       </c>
       <c r="R15">
-        <v>44.807936488224</v>
+        <v>42.380985384192</v>
       </c>
       <c r="S15">
-        <v>0.005525986338926246</v>
+        <v>0.002896209266833427</v>
       </c>
       <c r="T15">
-        <v>0.005525986338926247</v>
+        <v>0.002896209266833426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.076470666666667</v>
+        <v>1.018165333333333</v>
       </c>
       <c r="H16">
-        <v>3.229412</v>
+        <v>3.054496</v>
       </c>
       <c r="I16">
-        <v>0.06915626881666041</v>
+        <v>0.05192435533733264</v>
       </c>
       <c r="J16">
-        <v>0.06915626881666043</v>
+        <v>0.05192435533733263</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N16">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O16">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P16">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q16">
-        <v>9.542146371708887</v>
+        <v>37.35588264734579</v>
       </c>
       <c r="R16">
-        <v>85.87931734538</v>
+        <v>336.2029438261121</v>
       </c>
       <c r="S16">
-        <v>0.01059115798763916</v>
+        <v>0.02297525818757996</v>
       </c>
       <c r="T16">
-        <v>0.01059115798763916</v>
+        <v>0.02297525818757995</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.076470666666667</v>
+        <v>1.018165333333333</v>
       </c>
       <c r="H17">
-        <v>3.229412</v>
+        <v>3.054496</v>
       </c>
       <c r="I17">
-        <v>0.06915626881666041</v>
+        <v>0.05192435533733264</v>
       </c>
       <c r="J17">
-        <v>0.06915626881666043</v>
+        <v>0.05192435533733263</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N17">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O17">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P17">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q17">
-        <v>2.316464762894666</v>
+        <v>1.374423419797334</v>
       </c>
       <c r="R17">
-        <v>20.848182866052</v>
+        <v>12.369810778176</v>
       </c>
       <c r="S17">
-        <v>0.002571124285973695</v>
+        <v>0.0008453215582404127</v>
       </c>
       <c r="T17">
-        <v>0.002571124285973695</v>
+        <v>0.0008453215582404123</v>
       </c>
     </row>
   </sheetData>
